--- a/Data/2004 STOP Summary.xlsx
+++ b/Data/2004 STOP Summary.xlsx
@@ -18605,7 +18605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -22486,7 +22486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:W199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
@@ -28083,7 +28083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="I28" activePane="bottomRight" state="frozen"/>
@@ -33713,7 +33713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
@@ -36641,7 +36641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
@@ -38902,7 +38902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>

--- a/Data/2004 STOP Summary.xlsx
+++ b/Data/2004 STOP Summary.xlsx
@@ -11756,7 +11756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV10"/>
+  <dimension ref="A1:BV9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13943,43 +13943,6 @@
       </c>
       <c r="BV9" t="n">
         <v>86189.73000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>San Mateo County Fair        DATA NOT AVAILABLE</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18605,7 +18568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -22326,121 +22289,9 @@
         <v>460474.3</v>
       </c>
     </row>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="38" t="n"/>
     </row>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="N2:N3"/>
@@ -22486,7 +22337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W199"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
@@ -27921,119 +27772,9 @@
       <c r="P88" s="84" t="n"/>
       <c r="S88" s="84" t="n"/>
     </row>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="38" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="Q2:Q3"/>
@@ -28083,7 +27824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="I28" activePane="bottomRight" state="frozen"/>
@@ -33553,115 +33294,9 @@
       <c r="P92" s="94" t="n"/>
       <c r="R92" s="84" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
     <row r="99">
       <c r="A99" s="37" t="n"/>
     </row>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="N2:N3"/>
@@ -33713,7 +33348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
@@ -36492,117 +36127,9 @@
       <c r="F90" s="84" t="n"/>
       <c r="K90" s="94" t="n"/>
     </row>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
     <row r="95">
       <c r="A95" s="37" t="n"/>
     </row>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I2:I3"/>
@@ -36641,7 +36168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
@@ -38755,118 +38282,9 @@
     <row r="89">
       <c r="A89" s="94" t="n"/>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
     <row r="94">
       <c r="A94" s="37" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A56:B57"/>
@@ -38902,7 +38320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
@@ -40953,125 +40371,12 @@
         <v>15681097</v>
       </c>
     </row>
-    <row r="85"/>
     <row r="86">
       <c r="A86" s="94" t="n"/>
     </row>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
     <row r="91">
       <c r="A91" s="37" t="n"/>
     </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="E2:E3"/>
@@ -41107,7 +40412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
@@ -42734,125 +42039,15 @@
         <v>97504192</v>
       </c>
     </row>
-    <row r="87"/>
     <row r="88">
       <c r="A88" s="94" t="n"/>
     </row>
     <row r="89">
       <c r="E89" s="77" t="n"/>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
     <row r="93">
       <c r="A93" s="37" t="n"/>
     </row>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="E2:E3"/>
